--- a/biology/Botanique/Physostégie_de_Virginie/Physostégie_de_Virginie.xlsx
+++ b/biology/Botanique/Physostégie_de_Virginie/Physostégie_de_Virginie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Physost%C3%A9gie_de_Virginie</t>
+          <t>Physostégie_de_Virginie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Physostegia virginiana
 La physostégie de Virginie (Physostegia virginiana) est une plante herbacée vivace appartenant à la famille des labiées et originaire d'Amérique du Nord. Elle se développe dans les milieux frais à humides, tels que les marais, les bords de rivière, fossés ou prairies humides.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Physost%C3%A9gie_de_Virginie</t>
+          <t>Physostégie_de_Virginie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante rhizomateuse qui mesure entre 0,5 et 1,5 m de hauteur selon les variétés. Ses rhizomes blancs, charnus lui permettent de s'étendre sur un rayon de plusieurs mètres de diamètre.
 			Inflorescence.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Physost%C3%A9gie_de_Virginie</t>
+          <t>Physostégie_de_Virginie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,13 +567,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La physostégie de Virginie est une plante très rustique (jusqu'à -30 °C). Elle est cultivée dans les jardins d'ornement, particulièrement dans les bordures de vivaces. Elle n'est pas exigeante et pousse facilement dans n'importe quelle terre de jardin, au soleil ou à la mi-ombre. Il faut la contrôler, car elle a tendance à devenir envahissante. Il faut aussi éviter de trop la fertiliser car cela provoque un allongement des tiges qui auront alors tendance à verser. De même, la hauteur de la plante est directement liée à la quantité d’eau disponible dans le sol en été. Physostegia virginiana peut se montrer très vigoureuse lorsque le sol est riche naturellement (humus) et humide. Elle aura tendance alors à étouffer alors des plantes voisines plus délicates.
 Physostegia virginiana se reproduit facilement par division des rhizomes au printemps ou en en fin d’été et automne.
 Les graines germent bien après une stratification froide.
-Cultivars
-La forme sauvage est rose violacée, avec des tiges très hautes. Il existe des variétés plus petites et à fleurs blanches telles que ‘Sommer Snow’ ou ‘Miss Manners’. Il existe également des cultivars à feuilles panachées.
 </t>
         </is>
       </c>
@@ -570,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Physost%C3%A9gie_de_Virginie</t>
+          <t>Physostégie_de_Virginie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,10 +599,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme sauvage est rose violacée, avec des tiges très hautes. Il existe des variétés plus petites et à fleurs blanches telles que ‘Sommer Snow’ ou ‘Miss Manners’. Il existe également des cultivars à feuilles panachées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Physostégie_de_Virginie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Physost%C3%A9gie_de_Virginie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les Anglo-Saxons, la plante porte parfois le nom de « fausse tête de dragon », false dragonhead, en raison de sa ressemblance avec les fleurs en casque du Dracocephalum moldavica.
 </t>
